--- a/实验8：工作量估计与统计分析/实验1 软件需求分析工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验1 软件需求分析工作统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="需求分析报告工作量统计" sheetId="1" r:id="rId1"/>
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,6 +360,135 @@
   </si>
   <si>
     <t>需求分析报告工作量统计表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增添1.文档概述与2.系统概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加需求分析文档的概述部分与flask系统部分需求说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘安佶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0.0.200330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增添修改3.1 用例图与3.2 部分RUCM表格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计新的用例并根据用例编写RUCM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.3.25</t>
+  </si>
+  <si>
+    <t>V1.0.0.200325</t>
+  </si>
+  <si>
+    <t>增添3.2flask-sqlalchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flask-SQLAlchemy插件的需求分析
+</t>
+  </si>
+  <si>
+    <t>张祥国</t>
+  </si>
+  <si>
+    <t>2020.3.26</t>
+  </si>
+  <si>
+    <t>V1.0.0.200326</t>
+  </si>
+  <si>
+    <t>更改1.3术语和缩略词和3需求分析等</t>
+  </si>
+  <si>
+    <t>内容较对</t>
+  </si>
+  <si>
+    <t>2020.3.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0.0.200325</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加3.3.5 扩展功能需求分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加sqlalchemy插件的扩展描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王康明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.3.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2.0.0.200330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加第一、二、四章和第三章第一节内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加新版需求规格说明书的引言、概述、功能需求、非功能需求和运行环境规定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王康明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增添3.3flask-script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Flask-script插件的需求分析
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马广洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.3.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0.0.200325</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增添3.1功能需求分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flask框架的功能需求分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常佳辉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,7 +496,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,6 +563,38 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -455,12 +616,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -474,6 +632,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,30 +822,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:F12" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:F12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A2:F12"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="姓名" dataDxfId="15"/>
-    <tableColumn id="2" name="完成图表个数" dataDxfId="14"/>
-    <tableColumn id="3" name="完成报告字数" dataDxfId="13"/>
-    <tableColumn id="4" name="完成相关文档" dataDxfId="12"/>
-    <tableColumn id="5" name="完成报告修订" dataDxfId="11"/>
-    <tableColumn id="6" name="总耗时(h)" dataDxfId="10"/>
+    <tableColumn id="1" name="姓名" dataDxfId="13"/>
+    <tableColumn id="2" name="完成图表个数" dataDxfId="12"/>
+    <tableColumn id="3" name="完成报告字数" dataDxfId="11"/>
+    <tableColumn id="4" name="完成相关文档" dataDxfId="10"/>
+    <tableColumn id="5" name="完成报告修订" dataDxfId="9"/>
+    <tableColumn id="6" name="总耗时(h)" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A2:F11" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A2:F11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A2:F36" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F36"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="修改日期" dataDxfId="7"/>
-    <tableColumn id="2" name="版本" dataDxfId="6"/>
-    <tableColumn id="3" name="修改页码、章节、条款" dataDxfId="5"/>
-    <tableColumn id="4" name="修改描述" dataDxfId="4"/>
-    <tableColumn id="5" name="修改人" dataDxfId="3"/>
-    <tableColumn id="6" name="耗时(h)" dataDxfId="2"/>
+    <tableColumn id="1" name="修改日期" dataDxfId="5"/>
+    <tableColumn id="2" name="版本" dataDxfId="4"/>
+    <tableColumn id="3" name="修改页码、章节、条款" dataDxfId="3"/>
+    <tableColumn id="4" name="修改描述" dataDxfId="2"/>
+    <tableColumn id="5" name="修改人" dataDxfId="1"/>
+    <tableColumn id="6" name="耗时(h)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -955,14 +1131,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -985,22 +1161,22 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>15.5</v>
       </c>
     </row>
@@ -1020,71 +1196,431 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>0.5</v>
       </c>
+    </row>
+    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1092,9 +1628,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/实验8：工作量估计与统计分析/实验1 软件需求分析工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验1 软件需求分析工作统计.xlsx
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -489,6 +489,26 @@
   </si>
   <si>
     <t>常佳辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.4.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2.1.1.200417</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据E、F评审修改文档中部分规范性、准确性问题包含修改语病、标点、修改文档前后矛盾的部分内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牟秋宇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,9 +653,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -650,6 +667,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1131,14 +1151,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1198,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1213,14 +1233,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1263,82 +1283,82 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>0.5</v>
       </c>
     </row>
@@ -1383,22 +1403,22 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>2</v>
       </c>
     </row>
@@ -1422,205 +1442,217 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+    <row r="12" spans="1:6" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/实验8：工作量估计与统计分析/实验1 软件需求分析工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验1 软件需求分析工作统计.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA1EFB0-55FD-4B68-8F23-E087359B4CAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="需求分析报告工作量统计" sheetId="1" r:id="rId1"/>
@@ -20,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -129,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -160,12 +161,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -191,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -217,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -233,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -264,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -489,13 +490,45 @@
   </si>
   <si>
     <t>常佳辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.4.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.4.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0.0.200410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0.0.200416</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改3.2用例图以及RUCM表格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据H、I小组意见对用例图以及RUCM进行修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据E、F小组意见对用例图以及RUCM进行修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘安佶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -633,9 +666,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -650,6 +680,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -822,30 +855,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:F12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A2:F12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2" displayName="表2" ref="A2:F12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A2:F12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="姓名" dataDxfId="13"/>
-    <tableColumn id="2" name="完成图表个数" dataDxfId="12"/>
-    <tableColumn id="3" name="完成报告字数" dataDxfId="11"/>
-    <tableColumn id="4" name="完成相关文档" dataDxfId="10"/>
-    <tableColumn id="5" name="完成报告修订" dataDxfId="9"/>
-    <tableColumn id="6" name="总耗时(h)" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="姓名" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="完成图表个数" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="完成报告字数" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="完成相关文档" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="完成报告修订" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="总耗时(h)" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A2:F36" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A2:F36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表3" displayName="表3" ref="A2:F36" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F36" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="修改日期" dataDxfId="5"/>
-    <tableColumn id="2" name="版本" dataDxfId="4"/>
-    <tableColumn id="3" name="修改页码、章节、条款" dataDxfId="3"/>
-    <tableColumn id="4" name="修改描述" dataDxfId="2"/>
-    <tableColumn id="5" name="修改人" dataDxfId="1"/>
-    <tableColumn id="6" name="耗时(h)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="修改日期" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="版本" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="修改页码、章节、条款" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="修改描述" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="修改人" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="耗时(h)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1113,7 +1146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1131,14 +1164,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1195,11 +1228,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1213,14 +1246,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1263,82 +1296,82 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>0.5</v>
       </c>
     </row>
@@ -1383,22 +1416,22 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>2</v>
       </c>
     </row>
@@ -1422,205 +1455,229 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+    <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/实验8：工作量估计与统计分析/实验1 软件需求分析工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验1 软件需求分析工作统计.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B62953-101C-4708-98FA-0C4F77B1AF8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="需求分析报告工作量统计" sheetId="1" r:id="rId1"/>
@@ -20,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -129,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -160,12 +161,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -191,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -217,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -233,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -264,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -510,12 +511,36 @@
   <si>
     <t>牟秋宇</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.4.10</t>
+  </si>
+  <si>
+    <t>V1.0.0.200410</t>
+  </si>
+  <si>
+    <t>修改3.2用例图以及RUCM表格</t>
+  </si>
+  <si>
+    <t>根据H、I小组意见对用例图以及RUCM进行修改</t>
+  </si>
+  <si>
+    <t>潘安佶</t>
+  </si>
+  <si>
+    <t>2020.4.16</t>
+  </si>
+  <si>
+    <t>V1.0.0.200416</t>
+  </si>
+  <si>
+    <t>根据E、F小组意见对用例图以及RUCM进行修改</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -842,30 +867,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:F12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A2:F12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2" displayName="表2" ref="A2:F12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A2:F12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="姓名" dataDxfId="13"/>
-    <tableColumn id="2" name="完成图表个数" dataDxfId="12"/>
-    <tableColumn id="3" name="完成报告字数" dataDxfId="11"/>
-    <tableColumn id="4" name="完成相关文档" dataDxfId="10"/>
-    <tableColumn id="5" name="完成报告修订" dataDxfId="9"/>
-    <tableColumn id="6" name="总耗时(h)" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="姓名" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="完成图表个数" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="完成报告字数" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="完成相关文档" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="完成报告修订" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="总耗时(h)" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A2:F36" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A2:F36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表3" displayName="表3" ref="A2:F36" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F36" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="修改日期" dataDxfId="5"/>
-    <tableColumn id="2" name="版本" dataDxfId="4"/>
-    <tableColumn id="3" name="修改页码、章节、条款" dataDxfId="3"/>
-    <tableColumn id="4" name="修改描述" dataDxfId="2"/>
-    <tableColumn id="5" name="修改人" dataDxfId="1"/>
-    <tableColumn id="6" name="耗时(h)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="修改日期" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="版本" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="修改页码、章节、条款" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="修改描述" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="修改人" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="耗时(h)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1133,7 +1158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1215,11 +1240,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1463,20 +1488,44 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="A13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="A14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
